--- a/data/pca/factorExposure/factorExposure_2015-02-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02160138086225118</v>
+        <v>0.01230478099612595</v>
       </c>
       <c r="C2">
-        <v>-0.03689577599488297</v>
+        <v>-0.05243613028300693</v>
       </c>
       <c r="D2">
-        <v>-0.1131592382474923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07224484787542386</v>
+      </c>
+      <c r="E2">
+        <v>-0.07988718384412162</v>
+      </c>
+      <c r="F2">
+        <v>-0.04648414747370296</v>
+      </c>
+      <c r="G2">
+        <v>0.1425544731825242</v>
+      </c>
+      <c r="H2">
+        <v>-0.005425123499606644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04875433892266395</v>
+        <v>0.02138402866607531</v>
       </c>
       <c r="C4">
-        <v>-0.08271994842642608</v>
+        <v>-0.1185131663167472</v>
       </c>
       <c r="D4">
-        <v>-0.07274498479371329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07353160350891268</v>
+      </c>
+      <c r="E4">
+        <v>-0.09135909268701477</v>
+      </c>
+      <c r="F4">
+        <v>-0.1047604030633207</v>
+      </c>
+      <c r="G4">
+        <v>-0.00979929392359211</v>
+      </c>
+      <c r="H4">
+        <v>-0.06815363431726949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03030232566981684</v>
+        <v>0.03409665664833859</v>
       </c>
       <c r="C6">
-        <v>-0.02179320457488682</v>
+        <v>-0.04165147254704863</v>
       </c>
       <c r="D6">
-        <v>-0.0828519717118533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06322162773719787</v>
+      </c>
+      <c r="E6">
+        <v>-0.1113401850271798</v>
+      </c>
+      <c r="F6">
+        <v>-0.05592398778181192</v>
+      </c>
+      <c r="G6">
+        <v>0.001642416656251198</v>
+      </c>
+      <c r="H6">
+        <v>0.03361075582066294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0009435645493475002</v>
+        <v>0.00651599677028394</v>
       </c>
       <c r="C7">
-        <v>-0.03319113833508093</v>
+        <v>-0.0465616280095282</v>
       </c>
       <c r="D7">
-        <v>-0.07023669935158657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04148902734342363</v>
+      </c>
+      <c r="E7">
+        <v>-0.0937282395651661</v>
+      </c>
+      <c r="F7">
+        <v>-0.01781766168388961</v>
+      </c>
+      <c r="G7">
+        <v>-0.01170862499458241</v>
+      </c>
+      <c r="H7">
+        <v>-0.02285051618923266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.003969997666643716</v>
+        <v>-0.004417607803548244</v>
       </c>
       <c r="C8">
-        <v>-0.03012079422505104</v>
+        <v>-0.0423354893547111</v>
       </c>
       <c r="D8">
-        <v>-0.06585329357423174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03632232987763002</v>
+      </c>
+      <c r="E8">
+        <v>-0.06857763167059146</v>
+      </c>
+      <c r="F8">
+        <v>-0.06113659113801425</v>
+      </c>
+      <c r="G8">
+        <v>0.05068138590194731</v>
+      </c>
+      <c r="H8">
+        <v>-0.05854055586301691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03456016995681331</v>
+        <v>0.01410131089864513</v>
       </c>
       <c r="C9">
-        <v>-0.07384462147500569</v>
+        <v>-0.09750687273925703</v>
       </c>
       <c r="D9">
-        <v>-0.08033781048956545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0661894416739575</v>
+      </c>
+      <c r="E9">
+        <v>-0.07858130387449945</v>
+      </c>
+      <c r="F9">
+        <v>-0.07498729879533292</v>
+      </c>
+      <c r="G9">
+        <v>-0.007173171350793045</v>
+      </c>
+      <c r="H9">
+        <v>-0.01505636957437671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1983440754542838</v>
+        <v>0.2426775431998813</v>
       </c>
       <c r="C10">
-        <v>0.1519809090212517</v>
+        <v>0.08803400142702289</v>
       </c>
       <c r="D10">
-        <v>0.04774391618043867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008640919684560157</v>
+      </c>
+      <c r="E10">
+        <v>0.02701311278970962</v>
+      </c>
+      <c r="F10">
+        <v>-0.03157702671894882</v>
+      </c>
+      <c r="G10">
+        <v>-0.01164397010793028</v>
+      </c>
+      <c r="H10">
+        <v>-0.002327882083748514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01179761582808596</v>
+        <v>0.009697931724605679</v>
       </c>
       <c r="C11">
-        <v>-0.04088270316131529</v>
+        <v>-0.0613090606453068</v>
       </c>
       <c r="D11">
-        <v>-0.0414939552566969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02383109759950557</v>
+      </c>
+      <c r="E11">
+        <v>-0.05631658006212509</v>
+      </c>
+      <c r="F11">
+        <v>-0.00449575320876826</v>
+      </c>
+      <c r="G11">
+        <v>-0.01088889394121337</v>
+      </c>
+      <c r="H11">
+        <v>-0.006943572419010439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01090511447814011</v>
+        <v>0.01018933272277513</v>
       </c>
       <c r="C12">
-        <v>-0.04229547374635183</v>
+        <v>-0.05148099641612779</v>
       </c>
       <c r="D12">
-        <v>-0.04955197793966649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03058643217864918</v>
+      </c>
+      <c r="E12">
+        <v>-0.04797311073938033</v>
+      </c>
+      <c r="F12">
+        <v>-0.001624069573473213</v>
+      </c>
+      <c r="G12">
+        <v>-0.0008269036671839597</v>
+      </c>
+      <c r="H12">
+        <v>0.02407481460800281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01570989301656633</v>
+        <v>0.004707017005942485</v>
       </c>
       <c r="C13">
-        <v>-0.03381735621707624</v>
+        <v>-0.06969285472118596</v>
       </c>
       <c r="D13">
-        <v>-0.1103105556046498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1064121382955142</v>
+      </c>
+      <c r="E13">
+        <v>-0.1127754779614016</v>
+      </c>
+      <c r="F13">
+        <v>-0.03818594905176303</v>
+      </c>
+      <c r="G13">
+        <v>0.05858490290257385</v>
+      </c>
+      <c r="H13">
+        <v>0.06997286308089239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007712449746171204</v>
+        <v>0.003177049430184396</v>
       </c>
       <c r="C14">
-        <v>-0.01907081545478442</v>
+        <v>-0.03744584795888332</v>
       </c>
       <c r="D14">
-        <v>-0.05738764728154082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04109091003746689</v>
+      </c>
+      <c r="E14">
+        <v>-0.1091826777032893</v>
+      </c>
+      <c r="F14">
+        <v>-0.04277090264476834</v>
+      </c>
+      <c r="G14">
+        <v>0.02227077665037548</v>
+      </c>
+      <c r="H14">
+        <v>0.03609846365373112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002519566415330575</v>
+        <v>-0.004917561729775174</v>
       </c>
       <c r="C15">
-        <v>-0.01225003886184971</v>
+        <v>-0.03414204670446794</v>
       </c>
       <c r="D15">
-        <v>-0.05001782111011734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04438289739168828</v>
+      </c>
+      <c r="E15">
+        <v>-0.06469180644835758</v>
+      </c>
+      <c r="F15">
+        <v>-0.01754929562944851</v>
+      </c>
+      <c r="G15">
+        <v>0.01763621719567288</v>
+      </c>
+      <c r="H15">
+        <v>-0.01055745922442161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01133021188902043</v>
+        <v>0.009350511916430914</v>
       </c>
       <c r="C16">
-        <v>-0.04048628859843854</v>
+        <v>-0.05383159754642836</v>
       </c>
       <c r="D16">
-        <v>-0.04520385877866611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.026415433166713</v>
+      </c>
+      <c r="E16">
+        <v>-0.05185522319174962</v>
+      </c>
+      <c r="F16">
+        <v>-0.001276871732105462</v>
+      </c>
+      <c r="G16">
+        <v>-0.02278958466086852</v>
+      </c>
+      <c r="H16">
+        <v>0.007961700021388804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.004553808624668589</v>
+        <v>0.0003005281021656102</v>
       </c>
       <c r="C19">
-        <v>-0.01873398002391718</v>
+        <v>-0.01530826544174105</v>
       </c>
       <c r="D19">
-        <v>-0.04471593238526436</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02191492177033629</v>
+      </c>
+      <c r="E19">
+        <v>-0.008556896036425293</v>
+      </c>
+      <c r="F19">
+        <v>-0.006206428735012964</v>
+      </c>
+      <c r="G19">
+        <v>0.02909905436219164</v>
+      </c>
+      <c r="H19">
+        <v>0.001622110070979895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001976628221755747</v>
+        <v>0.004305873358327991</v>
       </c>
       <c r="C20">
-        <v>-0.02789056425395473</v>
+        <v>-0.05034053640514278</v>
       </c>
       <c r="D20">
-        <v>-0.05233177009617254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05130694655056823</v>
+      </c>
+      <c r="E20">
+        <v>-0.07165843265638908</v>
+      </c>
+      <c r="F20">
+        <v>-0.02926258052947007</v>
+      </c>
+      <c r="G20">
+        <v>-0.02487069572371289</v>
+      </c>
+      <c r="H20">
+        <v>-0.01092707090503576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.007269138901682202</v>
+        <v>0.004163376336002666</v>
       </c>
       <c r="C21">
-        <v>-0.03588762599055159</v>
+        <v>-0.05242477170000321</v>
       </c>
       <c r="D21">
-        <v>-0.0794546156824629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07206630581779586</v>
+      </c>
+      <c r="E21">
+        <v>-0.08811262529763181</v>
+      </c>
+      <c r="F21">
+        <v>-0.1031349883888592</v>
+      </c>
+      <c r="G21">
+        <v>0.09269422530340771</v>
+      </c>
+      <c r="H21">
+        <v>0.06948787417782565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004972019792959165</v>
+        <v>-0.009322930798460232</v>
       </c>
       <c r="C22">
-        <v>-0.05902290905156145</v>
+        <v>-0.08663733054473567</v>
       </c>
       <c r="D22">
-        <v>-0.1929463249035567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1827949089982421</v>
+      </c>
+      <c r="E22">
+        <v>-0.1466079298853676</v>
+      </c>
+      <c r="F22">
+        <v>-0.08878905653592424</v>
+      </c>
+      <c r="G22">
+        <v>0.1746880235816305</v>
+      </c>
+      <c r="H22">
+        <v>-0.2236874645006629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004978853223152375</v>
+        <v>-0.006280046352348187</v>
       </c>
       <c r="C23">
-        <v>-0.05995352867555621</v>
+        <v>-0.08877207220848662</v>
       </c>
       <c r="D23">
-        <v>-0.1920278796857765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.18639812842197</v>
+      </c>
+      <c r="E23">
+        <v>-0.1441164686320611</v>
+      </c>
+      <c r="F23">
+        <v>-0.09099138633104308</v>
+      </c>
+      <c r="G23">
+        <v>0.1709503340359834</v>
+      </c>
+      <c r="H23">
+        <v>-0.2144621400160027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.01807222333974064</v>
+        <v>0.01076087310419449</v>
       </c>
       <c r="C24">
-        <v>-0.06022689607776398</v>
+        <v>-0.07081817684578584</v>
       </c>
       <c r="D24">
-        <v>-0.05669543987711953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02242499623278768</v>
+      </c>
+      <c r="E24">
+        <v>-0.06230215660152488</v>
+      </c>
+      <c r="F24">
+        <v>-0.005598988198632071</v>
+      </c>
+      <c r="G24">
+        <v>-0.0005337283657384439</v>
+      </c>
+      <c r="H24">
+        <v>-0.001240343173234983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.01749671772404536</v>
+        <v>0.01443111598332621</v>
       </c>
       <c r="C25">
-        <v>-0.05216866544594571</v>
+        <v>-0.06512794537090928</v>
       </c>
       <c r="D25">
-        <v>-0.04358078040123532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02748125238240215</v>
+      </c>
+      <c r="E25">
+        <v>-0.04516375422149629</v>
+      </c>
+      <c r="F25">
+        <v>-0.007218146305255823</v>
+      </c>
+      <c r="G25">
+        <v>-0.01351411672712615</v>
+      </c>
+      <c r="H25">
+        <v>-3.9777570759906e-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.008417300863153232</v>
+        <v>0.01757372757062662</v>
       </c>
       <c r="C26">
-        <v>-0.01711264474271752</v>
+        <v>-0.03673439600393288</v>
       </c>
       <c r="D26">
-        <v>-0.04742048844519286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02352559062831473</v>
+      </c>
+      <c r="E26">
+        <v>-0.07895292348681929</v>
+      </c>
+      <c r="F26">
+        <v>-0.05660708802971626</v>
+      </c>
+      <c r="G26">
+        <v>0.02194355353592138</v>
+      </c>
+      <c r="H26">
+        <v>-0.005618457809127068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2778553581188238</v>
+        <v>0.3113652050930866</v>
       </c>
       <c r="C28">
-        <v>0.1679793720130479</v>
+        <v>0.09456843306375794</v>
       </c>
       <c r="D28">
-        <v>0.01320198156768958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003495583529598582</v>
+      </c>
+      <c r="E28">
+        <v>0.05516350440388893</v>
+      </c>
+      <c r="F28">
+        <v>-0.05250885553097442</v>
+      </c>
+      <c r="G28">
+        <v>0.04689582941321173</v>
+      </c>
+      <c r="H28">
+        <v>-0.06282764840757002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001569285681276263</v>
+        <v>0.002547178445115071</v>
       </c>
       <c r="C29">
-        <v>-0.02214005722126463</v>
+        <v>-0.04315574110462906</v>
       </c>
       <c r="D29">
-        <v>-0.06038137401104696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04600884632758099</v>
+      </c>
+      <c r="E29">
+        <v>-0.1211475103408213</v>
+      </c>
+      <c r="F29">
+        <v>-0.04768353971200277</v>
+      </c>
+      <c r="G29">
+        <v>0.0122202861495895</v>
+      </c>
+      <c r="H29">
+        <v>0.05071301807486713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02718513732577363</v>
+        <v>0.01726964038001235</v>
       </c>
       <c r="C30">
-        <v>-0.07613456289558213</v>
+        <v>-0.1031285391287827</v>
       </c>
       <c r="D30">
-        <v>-0.1327640905701132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08039535003915066</v>
+      </c>
+      <c r="E30">
+        <v>-0.1355009786848346</v>
+      </c>
+      <c r="F30">
+        <v>-0.03312814368461978</v>
+      </c>
+      <c r="G30">
+        <v>-0.00826673772353417</v>
+      </c>
+      <c r="H30">
+        <v>-0.02126442646860148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03177881188701255</v>
+        <v>0.01034747445395712</v>
       </c>
       <c r="C31">
-        <v>-0.08919243680660704</v>
+        <v>-0.09818631032360924</v>
       </c>
       <c r="D31">
-        <v>-0.04120960877522977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01311501502322186</v>
+      </c>
+      <c r="E31">
+        <v>-0.03024426074893931</v>
+      </c>
+      <c r="F31">
+        <v>-0.0171355139872727</v>
+      </c>
+      <c r="G31">
+        <v>0.02174031436493514</v>
+      </c>
+      <c r="H31">
+        <v>-0.01443812728424439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01888803928459691</v>
+        <v>0.01341735960737818</v>
       </c>
       <c r="C32">
-        <v>-0.04143053057482889</v>
+        <v>-0.05570301012344854</v>
       </c>
       <c r="D32">
-        <v>-0.07782955758430293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0755096590428106</v>
+      </c>
+      <c r="E32">
+        <v>-0.03492039469043629</v>
+      </c>
+      <c r="F32">
+        <v>-0.06841044097115828</v>
+      </c>
+      <c r="G32">
+        <v>0.04797223097267123</v>
+      </c>
+      <c r="H32">
+        <v>0.0107396138360412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.006570742643883016</v>
+        <v>0.00726264651715812</v>
       </c>
       <c r="C33">
-        <v>-0.04614158466772419</v>
+        <v>-0.07062476225821168</v>
       </c>
       <c r="D33">
-        <v>-0.08100070673749366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06998244609901848</v>
+      </c>
+      <c r="E33">
+        <v>-0.09675248563793568</v>
+      </c>
+      <c r="F33">
+        <v>-0.04359271308817114</v>
+      </c>
+      <c r="G33">
+        <v>0.007915625884992887</v>
+      </c>
+      <c r="H33">
+        <v>0.003997473972737601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.01217326064897945</v>
+        <v>0.008974684409264366</v>
       </c>
       <c r="C34">
-        <v>-0.05982092475266313</v>
+        <v>-0.06182770243422536</v>
       </c>
       <c r="D34">
-        <v>-0.05924990585999355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01377012934229193</v>
+      </c>
+      <c r="E34">
+        <v>-0.04717842547636002</v>
+      </c>
+      <c r="F34">
+        <v>0.02534172691811569</v>
+      </c>
+      <c r="G34">
+        <v>0.006226290267340745</v>
+      </c>
+      <c r="H34">
+        <v>0.009259716813822202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0007435626817330913</v>
+        <v>0.004227828851802544</v>
       </c>
       <c r="C35">
-        <v>-0.0003362613283313273</v>
+        <v>-0.01764816387050899</v>
       </c>
       <c r="D35">
-        <v>-0.003880683946428379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02309740473525373</v>
+      </c>
+      <c r="E35">
+        <v>-0.03523406423145006</v>
+      </c>
+      <c r="F35">
+        <v>-0.02785040230886346</v>
+      </c>
+      <c r="G35">
+        <v>-0.00391035160573576</v>
+      </c>
+      <c r="H35">
+        <v>0.01697137317344153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006734272039661899</v>
+        <v>0.01077344016092648</v>
       </c>
       <c r="C36">
-        <v>-0.01717583774768312</v>
+        <v>-0.03043630619163058</v>
       </c>
       <c r="D36">
-        <v>-0.04098115488720293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03152551939061118</v>
+      </c>
+      <c r="E36">
+        <v>-0.06760048551913957</v>
+      </c>
+      <c r="F36">
+        <v>-0.05110087159890236</v>
+      </c>
+      <c r="G36">
+        <v>0.01431575262210863</v>
+      </c>
+      <c r="H36">
+        <v>-0.0004556910689816127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.003342229561812776</v>
+        <v>0.007886436665318353</v>
       </c>
       <c r="C38">
-        <v>-0.01103176199555883</v>
+        <v>-0.03083613301361064</v>
       </c>
       <c r="D38">
-        <v>-0.07168649822511598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06083946197036431</v>
+      </c>
+      <c r="E38">
+        <v>-0.07247580505829548</v>
+      </c>
+      <c r="F38">
+        <v>-0.01816262006680396</v>
+      </c>
+      <c r="G38">
+        <v>0.01564671443072986</v>
+      </c>
+      <c r="H38">
+        <v>-0.04779182243538351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01690447791106254</v>
+        <v>0.008585963402457033</v>
       </c>
       <c r="C39">
-        <v>-0.06410926631256968</v>
+        <v>-0.09382793869763272</v>
       </c>
       <c r="D39">
-        <v>-0.09580491524154244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0438086805975703</v>
+      </c>
+      <c r="E39">
+        <v>-0.115289324951812</v>
+      </c>
+      <c r="F39">
+        <v>-0.001202065256123431</v>
+      </c>
+      <c r="G39">
+        <v>-0.01053572878233146</v>
+      </c>
+      <c r="H39">
+        <v>0.01987454079149923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01595693706603644</v>
+        <v>0.01383083382874187</v>
       </c>
       <c r="C40">
-        <v>-0.03011808068822773</v>
+        <v>-0.04647994613868357</v>
       </c>
       <c r="D40">
-        <v>-0.1058591373979017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.05864647232304378</v>
+      </c>
+      <c r="E40">
+        <v>-0.09194166935157561</v>
+      </c>
+      <c r="F40">
+        <v>0.02244560051955363</v>
+      </c>
+      <c r="G40">
+        <v>0.06907727843265971</v>
+      </c>
+      <c r="H40">
+        <v>0.006476796384175294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007591597099306272</v>
+        <v>0.0164686681778732</v>
       </c>
       <c r="C41">
-        <v>-0.01100662500437816</v>
+        <v>-0.02856480905089512</v>
       </c>
       <c r="D41">
-        <v>-0.01913766312875554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02719876319526496</v>
+      </c>
+      <c r="E41">
+        <v>-0.02578569849180506</v>
+      </c>
+      <c r="F41">
+        <v>-0.0166786769729083</v>
+      </c>
+      <c r="G41">
+        <v>-0.0005183836796287761</v>
+      </c>
+      <c r="H41">
+        <v>-0.005503707752158732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003896141199439382</v>
+        <v>0.007751847869906621</v>
       </c>
       <c r="C43">
-        <v>-0.007986647303787422</v>
+        <v>-0.02259973082936432</v>
       </c>
       <c r="D43">
-        <v>-0.03475396957619301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03222650034615389</v>
+      </c>
+      <c r="E43">
+        <v>-0.04221967941986698</v>
+      </c>
+      <c r="F43">
+        <v>-0.02248050438206131</v>
+      </c>
+      <c r="G43">
+        <v>-0.004180395151324548</v>
+      </c>
+      <c r="H43">
+        <v>-0.01184422086936476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01806859892111962</v>
+        <v>0.008717393036769437</v>
       </c>
       <c r="C44">
-        <v>-0.03457384879801934</v>
+        <v>-0.05693074290633503</v>
       </c>
       <c r="D44">
-        <v>-0.07986057533633788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06303667444448731</v>
+      </c>
+      <c r="E44">
+        <v>-0.1041892096481751</v>
+      </c>
+      <c r="F44">
+        <v>-0.04963290941586155</v>
+      </c>
+      <c r="G44">
+        <v>0.02119388977773453</v>
+      </c>
+      <c r="H44">
+        <v>-0.02528339794319985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.003182283762632554</v>
+        <v>-7.853573769878724e-05</v>
       </c>
       <c r="C46">
-        <v>-0.03213850004484187</v>
+        <v>-0.04510278892220811</v>
       </c>
       <c r="D46">
-        <v>-0.0624818353046066</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02965899216298479</v>
+      </c>
+      <c r="E46">
+        <v>-0.09335752788076193</v>
+      </c>
+      <c r="F46">
+        <v>-0.04546312749956262</v>
+      </c>
+      <c r="G46">
+        <v>0.01998553817875132</v>
+      </c>
+      <c r="H46">
+        <v>0.00494515507550432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06637823681164148</v>
+        <v>0.02953646445063523</v>
       </c>
       <c r="C47">
-        <v>-0.1159415152952963</v>
+        <v>-0.1251981244463933</v>
       </c>
       <c r="D47">
-        <v>-0.04754209518627366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01312261314636907</v>
+      </c>
+      <c r="E47">
+        <v>-0.002858651434788897</v>
+      </c>
+      <c r="F47">
+        <v>-0.0007758918884589176</v>
+      </c>
+      <c r="G47">
+        <v>-0.00117268742134496</v>
+      </c>
+      <c r="H47">
+        <v>-0.02368540206619725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.006567491265632306</v>
+        <v>0.01314286682157063</v>
       </c>
       <c r="C48">
-        <v>-0.02025115995810122</v>
+        <v>-0.03715435403309487</v>
       </c>
       <c r="D48">
-        <v>-0.04493867746936357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.03918075220773536</v>
+      </c>
+      <c r="E48">
+        <v>-0.07130382642249722</v>
+      </c>
+      <c r="F48">
+        <v>-0.06814479717628723</v>
+      </c>
+      <c r="G48">
+        <v>0.01827799005880694</v>
+      </c>
+      <c r="H48">
+        <v>-0.01233893264540236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00275067714379762</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.00574926019404489</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00275251914933662</v>
+      </c>
+      <c r="E49">
+        <v>-0.001952834721793261</v>
+      </c>
+      <c r="F49">
+        <v>0.00900604454461265</v>
+      </c>
+      <c r="G49">
+        <v>-0.01055378473827618</v>
+      </c>
+      <c r="H49">
+        <v>0.01545841732712818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03175437033740648</v>
+        <v>0.01404571589930665</v>
       </c>
       <c r="C50">
-        <v>-0.06240112850182416</v>
+        <v>-0.07907269276313007</v>
       </c>
       <c r="D50">
-        <v>-0.05990965543970085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02944127503104713</v>
+      </c>
+      <c r="E50">
+        <v>-0.04023315867899244</v>
+      </c>
+      <c r="F50">
+        <v>-0.01261590204595081</v>
+      </c>
+      <c r="G50">
+        <v>0.01408998507935163</v>
+      </c>
+      <c r="H50">
+        <v>-0.02972208574957993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00730719066588969</v>
+        <v>-0.004560913525658389</v>
       </c>
       <c r="C51">
-        <v>-0.006557934955726558</v>
+        <v>-0.02118282391374143</v>
       </c>
       <c r="D51">
-        <v>-0.05041667688921396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01702638523734768</v>
+      </c>
+      <c r="E51">
+        <v>-0.06414554835957867</v>
+      </c>
+      <c r="F51">
+        <v>-0.04068328468898238</v>
+      </c>
+      <c r="G51">
+        <v>0.03295329673604904</v>
+      </c>
+      <c r="H51">
+        <v>-0.003497134033566647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1018269739080723</v>
+        <v>0.05969072059535103</v>
       </c>
       <c r="C53">
-        <v>-0.138803270942741</v>
+        <v>-0.1638925847559367</v>
       </c>
       <c r="D53">
-        <v>0.007844418010209318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01960761025031994</v>
+      </c>
+      <c r="E53">
+        <v>0.03601191785742158</v>
+      </c>
+      <c r="F53">
+        <v>-0.03099735237720979</v>
+      </c>
+      <c r="G53">
+        <v>0.007425291962946879</v>
+      </c>
+      <c r="H53">
+        <v>-0.01070763456283076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.005506383006781404</v>
+        <v>0.01067560004269757</v>
       </c>
       <c r="C54">
-        <v>-0.0257770321066528</v>
+        <v>-0.04330257997294542</v>
       </c>
       <c r="D54">
-        <v>-0.08085028126585142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.05806694535543453</v>
+      </c>
+      <c r="E54">
+        <v>-0.07063564430876307</v>
+      </c>
+      <c r="F54">
+        <v>-0.02499214880239856</v>
+      </c>
+      <c r="G54">
+        <v>0.01095845995948498</v>
+      </c>
+      <c r="H54">
+        <v>-0.02305351734194245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08460712310471839</v>
+        <v>0.04157639288065239</v>
       </c>
       <c r="C55">
-        <v>-0.1157928496547458</v>
+        <v>-0.1278317735451775</v>
       </c>
       <c r="D55">
-        <v>0.001140770185381928</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05074050812118943</v>
+      </c>
+      <c r="E55">
+        <v>0.02475621300790255</v>
+      </c>
+      <c r="F55">
+        <v>0.008287587229088473</v>
+      </c>
+      <c r="G55">
+        <v>0.02996346269278713</v>
+      </c>
+      <c r="H55">
+        <v>-0.01520464934261044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.124820882793384</v>
+        <v>0.06175394769779095</v>
       </c>
       <c r="C56">
-        <v>-0.1646956238722921</v>
+        <v>-0.1917449177476747</v>
       </c>
       <c r="D56">
-        <v>-0.02054825555266574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04192716892200885</v>
+      </c>
+      <c r="E56">
+        <v>0.05120974804627408</v>
+      </c>
+      <c r="F56">
+        <v>0.01514415987476311</v>
+      </c>
+      <c r="G56">
+        <v>0.07216521119612047</v>
+      </c>
+      <c r="H56">
+        <v>-0.03899196304516217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01274843049972116</v>
+        <v>0.009553069291408037</v>
       </c>
       <c r="C58">
-        <v>-0.03148334337382058</v>
+        <v>-0.08005856722725682</v>
       </c>
       <c r="D58">
-        <v>-0.1683628941140267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.194493470025056</v>
+      </c>
+      <c r="E58">
+        <v>-0.1491255691246489</v>
+      </c>
+      <c r="F58">
+        <v>-0.1564389578316769</v>
+      </c>
+      <c r="G58">
+        <v>0.1178641728426009</v>
+      </c>
+      <c r="H58">
+        <v>-0.1404174768231302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2075157978611922</v>
+        <v>0.2618418257508952</v>
       </c>
       <c r="C59">
-        <v>0.121539947667743</v>
+        <v>0.05607613498768069</v>
       </c>
       <c r="D59">
-        <v>-0.04355715913274712</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04486625905321463</v>
+      </c>
+      <c r="E59">
+        <v>-0.001161201945696797</v>
+      </c>
+      <c r="F59">
+        <v>-0.02325227731949047</v>
+      </c>
+      <c r="G59">
+        <v>0.04149810999324971</v>
+      </c>
+      <c r="H59">
+        <v>0.02117847107263579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1663905895102971</v>
+        <v>0.1516500195388748</v>
       </c>
       <c r="C60">
-        <v>-0.1136832926779202</v>
+        <v>-0.1639455606757018</v>
       </c>
       <c r="D60">
-        <v>-0.1216143752675041</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0178503456240214</v>
+      </c>
+      <c r="E60">
+        <v>-0.1149990931250593</v>
+      </c>
+      <c r="F60">
+        <v>0.1816135812795141</v>
+      </c>
+      <c r="G60">
+        <v>-0.1804439891177474</v>
+      </c>
+      <c r="H60">
+        <v>0.2092177175416544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02026426571356883</v>
+        <v>0.01410586940362881</v>
       </c>
       <c r="C61">
-        <v>-0.05753970793442224</v>
+        <v>-0.081244670961743</v>
       </c>
       <c r="D61">
-        <v>-0.06820973417559542</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0326129195462167</v>
+      </c>
+      <c r="E61">
+        <v>-0.07997414760817784</v>
+      </c>
+      <c r="F61">
+        <v>-0.003826497850311364</v>
+      </c>
+      <c r="G61">
+        <v>-0.002420819049921563</v>
+      </c>
+      <c r="H61">
+        <v>0.006655745022426025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-7.338511707882854e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2.442538757280916e-05</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-2.937347126718639e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.0001858161011420979</v>
+      </c>
+      <c r="F62">
+        <v>-0.0007525222625186326</v>
+      </c>
+      <c r="G62">
+        <v>0.0005285182439153436</v>
+      </c>
+      <c r="H62">
+        <v>-0.001275254512048263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.008916586517084827</v>
+        <v>0.01609220635785032</v>
       </c>
       <c r="C63">
-        <v>-0.031159267221125</v>
+        <v>-0.0507742363253316</v>
       </c>
       <c r="D63">
-        <v>-0.06234662886631101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01978860258598695</v>
+      </c>
+      <c r="E63">
+        <v>-0.09529225168699909</v>
+      </c>
+      <c r="F63">
+        <v>-0.02910501488827393</v>
+      </c>
+      <c r="G63">
+        <v>-0.001878809686262975</v>
+      </c>
+      <c r="H63">
+        <v>0.002773374461059161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04426484000907956</v>
+        <v>0.01512569711821852</v>
       </c>
       <c r="C64">
-        <v>-0.09548969395078241</v>
+        <v>-0.102128382770225</v>
       </c>
       <c r="D64">
-        <v>-0.0148280647576286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0008727916280018266</v>
+      </c>
+      <c r="E64">
+        <v>-0.0307924067678348</v>
+      </c>
+      <c r="F64">
+        <v>-0.02881195222682636</v>
+      </c>
+      <c r="G64">
+        <v>-0.03327929344546651</v>
+      </c>
+      <c r="H64">
+        <v>-0.01313536843848115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02667223770010368</v>
+        <v>0.0276845801709494</v>
       </c>
       <c r="C65">
-        <v>-0.01984630596529499</v>
+        <v>-0.04934810026571967</v>
       </c>
       <c r="D65">
-        <v>-0.08504440580091771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07628359083632172</v>
+      </c>
+      <c r="E65">
+        <v>-0.09696595853859838</v>
+      </c>
+      <c r="F65">
+        <v>0.00254492330017502</v>
+      </c>
+      <c r="G65">
+        <v>-0.06681214813849483</v>
+      </c>
+      <c r="H65">
+        <v>0.02191468754896493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0226234424238179</v>
+        <v>0.009833900073628063</v>
       </c>
       <c r="C66">
-        <v>-0.07563100143024803</v>
+        <v>-0.1140205067718273</v>
       </c>
       <c r="D66">
-        <v>-0.1175562684676256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07409601608868827</v>
+      </c>
+      <c r="E66">
+        <v>-0.1174226587696055</v>
+      </c>
+      <c r="F66">
+        <v>-0.008336617177355846</v>
+      </c>
+      <c r="G66">
+        <v>0.01084315460954057</v>
+      </c>
+      <c r="H66">
+        <v>-0.004710880587605796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01562922065799215</v>
+        <v>0.01640818285198174</v>
       </c>
       <c r="C67">
-        <v>-0.01940249714123184</v>
+        <v>-0.03622520730028496</v>
       </c>
       <c r="D67">
-        <v>-0.04242330428052798</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02914148643320921</v>
+      </c>
+      <c r="E67">
+        <v>-0.0524720421333571</v>
+      </c>
+      <c r="F67">
+        <v>0.01325560371093041</v>
+      </c>
+      <c r="G67">
+        <v>0.0006822713208712809</v>
+      </c>
+      <c r="H67">
+        <v>-0.03170073825472063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2211455533660815</v>
+        <v>0.2797425557516096</v>
       </c>
       <c r="C68">
-        <v>0.1352142245907219</v>
+        <v>0.06762019460895324</v>
       </c>
       <c r="D68">
-        <v>-0.0256728010798314</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03482750664083902</v>
+      </c>
+      <c r="E68">
+        <v>-0.02258661022563813</v>
+      </c>
+      <c r="F68">
+        <v>-0.03250168601293511</v>
+      </c>
+      <c r="G68">
+        <v>0.03564210558328403</v>
+      </c>
+      <c r="H68">
+        <v>-0.02510243154284149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04794722133200875</v>
+        <v>0.01408761784741271</v>
       </c>
       <c r="C69">
-        <v>-0.1192703060889216</v>
+        <v>-0.1110922672168386</v>
       </c>
       <c r="D69">
-        <v>-0.06185020119583567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01145458377675663</v>
+      </c>
+      <c r="E69">
+        <v>-0.01341608744692654</v>
+      </c>
+      <c r="F69">
+        <v>0.007077940188570763</v>
+      </c>
+      <c r="G69">
+        <v>0.005701254333634801</v>
+      </c>
+      <c r="H69">
+        <v>-0.0002870976585305003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2335131129819967</v>
+        <v>0.2691588346413518</v>
       </c>
       <c r="C71">
-        <v>0.1542376142478936</v>
+        <v>0.0818949672116836</v>
       </c>
       <c r="D71">
-        <v>-0.01529329392367915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01325417415402125</v>
+      </c>
+      <c r="E71">
+        <v>0.0003942619120661498</v>
+      </c>
+      <c r="F71">
+        <v>-0.01412722221532481</v>
+      </c>
+      <c r="G71">
+        <v>0.03367758711366674</v>
+      </c>
+      <c r="H71">
+        <v>-0.04162447952907989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09825176201279598</v>
+        <v>0.06622240949813264</v>
       </c>
       <c r="C72">
-        <v>-0.08393196569629607</v>
+        <v>-0.126299300442219</v>
       </c>
       <c r="D72">
-        <v>-0.08569128363361932</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02071718987311444</v>
+      </c>
+      <c r="E72">
+        <v>-0.08499995527206197</v>
+      </c>
+      <c r="F72">
+        <v>0.01158168366836632</v>
+      </c>
+      <c r="G72">
+        <v>-0.04143388510902502</v>
+      </c>
+      <c r="H72">
+        <v>0.02035641177745395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1715214529582332</v>
+        <v>0.1587326805422313</v>
       </c>
       <c r="C73">
-        <v>-0.08953265767054985</v>
+        <v>-0.1707322085915377</v>
       </c>
       <c r="D73">
-        <v>-0.1752771603663818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01425561099133256</v>
+      </c>
+      <c r="E73">
+        <v>-0.2541478664748146</v>
+      </c>
+      <c r="F73">
+        <v>0.3095400148033614</v>
+      </c>
+      <c r="G73">
+        <v>-0.32974184986785</v>
+      </c>
+      <c r="H73">
+        <v>0.2705178177998435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.09519400540392783</v>
+        <v>0.05051336083827521</v>
       </c>
       <c r="C74">
-        <v>-0.1240400245118138</v>
+        <v>-0.1400022072392742</v>
       </c>
       <c r="D74">
-        <v>0.05527203939072695</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04402627404284672</v>
+      </c>
+      <c r="E74">
+        <v>0.05086708075379757</v>
+      </c>
+      <c r="F74">
+        <v>-0.02836150818721124</v>
+      </c>
+      <c r="G74">
+        <v>0.008987861257198127</v>
+      </c>
+      <c r="H74">
+        <v>-0.01463228587899154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2060466431730126</v>
+        <v>0.09777537512925767</v>
       </c>
       <c r="C75">
-        <v>-0.2176792400727815</v>
+        <v>-0.2562677389656852</v>
       </c>
       <c r="D75">
-        <v>0.02690224269185608</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.08801308040546948</v>
+      </c>
+      <c r="E75">
+        <v>0.1416224381464609</v>
+      </c>
+      <c r="F75">
+        <v>0.07556526034337854</v>
+      </c>
+      <c r="G75">
+        <v>0.09103784501095304</v>
+      </c>
+      <c r="H75">
+        <v>-0.1492642812456016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1257416280918366</v>
+        <v>0.06139869660203985</v>
       </c>
       <c r="C76">
-        <v>-0.1509170500189303</v>
+        <v>-0.1781823220736668</v>
       </c>
       <c r="D76">
-        <v>-0.009284764228126645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04237636167644983</v>
+      </c>
+      <c r="E76">
+        <v>0.05436141165393778</v>
+      </c>
+      <c r="F76">
+        <v>0.02618316248217285</v>
+      </c>
+      <c r="G76">
+        <v>0.04570474248273407</v>
+      </c>
+      <c r="H76">
+        <v>-0.02522622759001894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.006965411752866327</v>
+        <v>0.0007275721542860269</v>
       </c>
       <c r="C77">
-        <v>-0.08526245097245877</v>
+        <v>-0.1283061184019269</v>
       </c>
       <c r="D77">
-        <v>-0.2244553146431839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7548317425857108</v>
+      </c>
+      <c r="E77">
+        <v>0.5569602324834906</v>
+      </c>
+      <c r="F77">
+        <v>0.1329717228730733</v>
+      </c>
+      <c r="G77">
+        <v>-0.1777248207586745</v>
+      </c>
+      <c r="H77">
+        <v>0.05176423438369555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03642369745162808</v>
+        <v>0.02576845941105732</v>
       </c>
       <c r="C78">
-        <v>-0.07595124934037563</v>
+        <v>-0.09721368995556137</v>
       </c>
       <c r="D78">
-        <v>-0.1338581761714204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.04677972342079764</v>
+      </c>
+      <c r="E78">
+        <v>-0.1049350751607897</v>
+      </c>
+      <c r="F78">
+        <v>-0.05389386961127906</v>
+      </c>
+      <c r="G78">
+        <v>0.08833849531304343</v>
+      </c>
+      <c r="H78">
+        <v>0.002903285641665388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1098843587571886</v>
+        <v>0.0542028211494042</v>
       </c>
       <c r="C79">
-        <v>-0.2300926002585481</v>
+        <v>-0.2212767172261881</v>
       </c>
       <c r="D79">
-        <v>0.6819232033063692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1740923609792257</v>
+      </c>
+      <c r="E79">
+        <v>0.208604261809539</v>
+      </c>
+      <c r="F79">
+        <v>-0.7450498842052328</v>
+      </c>
+      <c r="G79">
+        <v>-0.4317870136549148</v>
+      </c>
+      <c r="H79">
+        <v>0.1701538995597071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.006973237916088543</v>
+        <v>0.009692521989375478</v>
       </c>
       <c r="C80">
-        <v>-0.0434674833131234</v>
+        <v>-0.04581725918028925</v>
       </c>
       <c r="D80">
-        <v>-0.02468361065134013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.003209236421456232</v>
+      </c>
+      <c r="E80">
+        <v>-0.06213322400018802</v>
+      </c>
+      <c r="F80">
+        <v>0.003970718616276522</v>
+      </c>
+      <c r="G80">
+        <v>0.03063852402564029</v>
+      </c>
+      <c r="H80">
+        <v>0.06779883248316682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.09496250191085807</v>
+        <v>0.03197889326754525</v>
       </c>
       <c r="C81">
-        <v>-0.1404825258648331</v>
+        <v>-0.1570493396948713</v>
       </c>
       <c r="D81">
-        <v>0.06780572983460162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05639711482236902</v>
+      </c>
+      <c r="E81">
+        <v>0.07856419830797819</v>
+      </c>
+      <c r="F81">
+        <v>-0.04555243814911857</v>
+      </c>
+      <c r="G81">
+        <v>0.07329133954757069</v>
+      </c>
+      <c r="H81">
+        <v>-0.02806158277637332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1984104029113699</v>
+        <v>0.07950420202129226</v>
       </c>
       <c r="C82">
-        <v>-0.3005784010028546</v>
+        <v>-0.2835258855681375</v>
       </c>
       <c r="D82">
-        <v>0.03774108189451773</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1605432385291524</v>
+      </c>
+      <c r="E82">
+        <v>0.1664527984941042</v>
+      </c>
+      <c r="F82">
+        <v>0.1390803742837853</v>
+      </c>
+      <c r="G82">
+        <v>0.1637973950691388</v>
+      </c>
+      <c r="H82">
+        <v>-0.06236735629689163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01091712580220845</v>
+        <v>-0.006707144244144601</v>
       </c>
       <c r="C83">
-        <v>-0.04520256904377799</v>
+        <v>-0.01496259412264231</v>
       </c>
       <c r="D83">
-        <v>-0.001909910738274951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04369223292599546</v>
+      </c>
+      <c r="E83">
+        <v>0.1034044870930343</v>
+      </c>
+      <c r="F83">
+        <v>-0.1175203110176693</v>
+      </c>
+      <c r="G83">
+        <v>0.5611480670368921</v>
+      </c>
+      <c r="H83">
+        <v>0.7396928186597713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0009074855765961508</v>
+        <v>-0.00282889711626304</v>
       </c>
       <c r="C84">
-        <v>-0.00391256194176031</v>
+        <v>-0.02030516649395049</v>
       </c>
       <c r="D84">
-        <v>-0.01028940394567295</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03584216192577356</v>
+      </c>
+      <c r="E84">
+        <v>-0.03975174232137472</v>
+      </c>
+      <c r="F84">
+        <v>-0.04209585831661546</v>
+      </c>
+      <c r="G84">
+        <v>0.02823647043392476</v>
+      </c>
+      <c r="H84">
+        <v>-0.05972496233686461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1233772180360425</v>
+        <v>0.05554832847426173</v>
       </c>
       <c r="C85">
-        <v>-0.1597929826403492</v>
+        <v>-0.1770876881620662</v>
       </c>
       <c r="D85">
-        <v>0.09145438284550303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1165975430080177</v>
+      </c>
+      <c r="E85">
+        <v>0.06647300873861747</v>
+      </c>
+      <c r="F85">
+        <v>-0.0348368020405134</v>
+      </c>
+      <c r="G85">
+        <v>0.01514110587039295</v>
+      </c>
+      <c r="H85">
+        <v>-0.03953181368619887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02675414750105765</v>
+        <v>0.01763625366628916</v>
       </c>
       <c r="C86">
-        <v>-0.01100165899081218</v>
+        <v>-0.04470726133675997</v>
       </c>
       <c r="D86">
-        <v>-0.07697576227173307</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0864720212581723</v>
+      </c>
+      <c r="E86">
+        <v>-0.02980738792771907</v>
+      </c>
+      <c r="F86">
+        <v>-0.05857688033093072</v>
+      </c>
+      <c r="G86">
+        <v>0.02596359178431227</v>
+      </c>
+      <c r="H86">
+        <v>-0.0624252762807081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02407504392122652</v>
+        <v>0.01215809812681811</v>
       </c>
       <c r="C87">
-        <v>-0.04109307005812567</v>
+        <v>-0.06958789416116035</v>
       </c>
       <c r="D87">
-        <v>-0.1116269081132297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09394272377562025</v>
+      </c>
+      <c r="E87">
+        <v>-0.09073343901553102</v>
+      </c>
+      <c r="F87">
+        <v>-0.06260860317621779</v>
+      </c>
+      <c r="G87">
+        <v>0.06326201643711603</v>
+      </c>
+      <c r="H87">
+        <v>-0.03433423527074107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04261227313866468</v>
+        <v>0.03435902832798794</v>
       </c>
       <c r="C88">
-        <v>-0.05659055004572364</v>
+        <v>-0.07265821464093471</v>
       </c>
       <c r="D88">
-        <v>0.002937754689705416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.001085915686024162</v>
+      </c>
+      <c r="E88">
+        <v>-0.02893856396577191</v>
+      </c>
+      <c r="F88">
+        <v>-0.01503463532434874</v>
+      </c>
+      <c r="G88">
+        <v>-0.01077299202336334</v>
+      </c>
+      <c r="H88">
+        <v>-0.001700415168258216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3542413064564521</v>
+        <v>0.3998744924725924</v>
       </c>
       <c r="C89">
-        <v>0.2853738242867521</v>
+        <v>0.1632924965073629</v>
       </c>
       <c r="D89">
-        <v>-0.001552994124089721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04840536217021586</v>
+      </c>
+      <c r="E89">
+        <v>0.006210103994901137</v>
+      </c>
+      <c r="F89">
+        <v>-0.06885491330522435</v>
+      </c>
+      <c r="G89">
+        <v>0.08742668782263804</v>
+      </c>
+      <c r="H89">
+        <v>0.08532483629410452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.279291771759959</v>
+        <v>0.3214769299636251</v>
       </c>
       <c r="C90">
-        <v>0.204212487760019</v>
+        <v>0.1014251993221286</v>
       </c>
       <c r="D90">
-        <v>-0.06210702895976614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03508603645697145</v>
+      </c>
+      <c r="E90">
+        <v>-0.0229565145466588</v>
+      </c>
+      <c r="F90">
+        <v>0.005419700411218221</v>
+      </c>
+      <c r="G90">
+        <v>0.0430722217370955</v>
+      </c>
+      <c r="H90">
+        <v>-0.01554095221176012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1320627978337967</v>
+        <v>0.06464371308247474</v>
       </c>
       <c r="C91">
-        <v>-0.1999836062360124</v>
+        <v>-0.1974464596222853</v>
       </c>
       <c r="D91">
-        <v>0.09855406752053759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.07855752854547779</v>
+      </c>
+      <c r="E91">
+        <v>0.127689783196624</v>
+      </c>
+      <c r="F91">
+        <v>-0.04381474863186622</v>
+      </c>
+      <c r="G91">
+        <v>0.03693199079086694</v>
+      </c>
+      <c r="H91">
+        <v>-0.005461090455524171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2688199144944823</v>
+        <v>0.3368387604774773</v>
       </c>
       <c r="C92">
-        <v>0.2398347474695126</v>
+        <v>0.1490741994055233</v>
       </c>
       <c r="D92">
-        <v>0.03617509791235347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04883421891146265</v>
+      </c>
+      <c r="E92">
+        <v>0.04488833378004594</v>
+      </c>
+      <c r="F92">
+        <v>-0.05791138693524797</v>
+      </c>
+      <c r="G92">
+        <v>-0.01792675364347225</v>
+      </c>
+      <c r="H92">
+        <v>-0.1307123498567299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2989827719047934</v>
+        <v>0.3295749676764747</v>
       </c>
       <c r="C93">
-        <v>0.2167959803212036</v>
+        <v>0.1218285809722524</v>
       </c>
       <c r="D93">
-        <v>0.03234848043648993</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02668559885383848</v>
+      </c>
+      <c r="E93">
+        <v>0.01002718795877318</v>
+      </c>
+      <c r="F93">
+        <v>-0.01211178008635191</v>
+      </c>
+      <c r="G93">
+        <v>-0.02508135690804144</v>
+      </c>
+      <c r="H93">
+        <v>-0.03880624895478159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2413160375316218</v>
+        <v>0.1226728848335258</v>
       </c>
       <c r="C94">
-        <v>-0.2771730107869344</v>
+        <v>-0.3031797318363147</v>
       </c>
       <c r="D94">
-        <v>0.09769678555936119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2530637544654701</v>
+      </c>
+      <c r="E94">
+        <v>0.2229604316987373</v>
+      </c>
+      <c r="F94">
+        <v>0.1798566454367908</v>
+      </c>
+      <c r="G94">
+        <v>0.212424786467329</v>
+      </c>
+      <c r="H94">
+        <v>-0.1639706024555951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.003755115462368501</v>
+        <v>0.01414890245935817</v>
       </c>
       <c r="C95">
-        <v>-0.06172609612740882</v>
+        <v>-0.08948155051414333</v>
       </c>
       <c r="D95">
-        <v>-0.09557200663264379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1359224277983943</v>
+      </c>
+      <c r="E95">
+        <v>0.01407143208310101</v>
+      </c>
+      <c r="F95">
+        <v>0.05897353640561585</v>
+      </c>
+      <c r="G95">
+        <v>-0.04925505467676454</v>
+      </c>
+      <c r="H95">
+        <v>0.02725046887215651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002154699361385827</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001151123808624742</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.001350534023645034</v>
+      </c>
+      <c r="E97">
+        <v>-0.00412526093406761</v>
+      </c>
+      <c r="F97">
+        <v>0.000218427502825756</v>
+      </c>
+      <c r="G97">
+        <v>-0.001254389599713822</v>
+      </c>
+      <c r="H97">
+        <v>-0.005995798007470851</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.142911602257661</v>
+        <v>0.1347278589501155</v>
       </c>
       <c r="C98">
-        <v>-0.1021950986676651</v>
+        <v>-0.1653948441969613</v>
       </c>
       <c r="D98">
-        <v>-0.1271016476295552</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.02403147079726284</v>
+      </c>
+      <c r="E98">
+        <v>-0.1659466677399041</v>
+      </c>
+      <c r="F98">
+        <v>0.2564834896335588</v>
+      </c>
+      <c r="G98">
+        <v>-0.2484957115289854</v>
+      </c>
+      <c r="H98">
+        <v>0.2169167811784916</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002423956774832464</v>
+        <v>0.002636512570852834</v>
       </c>
       <c r="C101">
-        <v>-0.02132839236020495</v>
+        <v>-0.04226286939751625</v>
       </c>
       <c r="D101">
-        <v>-0.06020243978427511</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04595185183982776</v>
+      </c>
+      <c r="E101">
+        <v>-0.1198007561512489</v>
+      </c>
+      <c r="F101">
+        <v>-0.04691067874093038</v>
+      </c>
+      <c r="G101">
+        <v>0.01229260994252355</v>
+      </c>
+      <c r="H101">
+        <v>0.05009267157451889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08023120867881686</v>
+        <v>0.01838478149314243</v>
       </c>
       <c r="C102">
-        <v>-0.1632663187133601</v>
+        <v>-0.1299296154268336</v>
       </c>
       <c r="D102">
-        <v>-0.007680396209317383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0700558398202487</v>
+      </c>
+      <c r="E102">
+        <v>0.0852257901434048</v>
+      </c>
+      <c r="F102">
+        <v>0.08345285901373491</v>
+      </c>
+      <c r="G102">
+        <v>0.06060007884247257</v>
+      </c>
+      <c r="H102">
+        <v>-0.01077386407004763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
